--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.90252333333333</v>
+        <v>31.63742133333333</v>
       </c>
       <c r="N2">
-        <v>158.70757</v>
+        <v>94.91226399999999</v>
       </c>
       <c r="O2">
-        <v>0.4835454380751707</v>
+        <v>0.3438737102674882</v>
       </c>
       <c r="P2">
-        <v>0.4835454380751708</v>
+        <v>0.3438737102674882</v>
       </c>
       <c r="Q2">
-        <v>12.32953262476445</v>
+        <v>7.373459599175111</v>
       </c>
       <c r="R2">
-        <v>110.96579362288</v>
+        <v>66.361136392576</v>
       </c>
       <c r="S2">
-        <v>0.3440149552693971</v>
+        <v>0.2446465000825865</v>
       </c>
       <c r="T2">
-        <v>0.3440149552693972</v>
+        <v>0.2446465000825865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>46.28042</v>
       </c>
       <c r="O3">
-        <v>0.1410057879608571</v>
+        <v>0.1676771690762499</v>
       </c>
       <c r="P3">
-        <v>0.1410057879608571</v>
+        <v>0.1676771690762499</v>
       </c>
       <c r="Q3">
         <v>3.595392130808889</v>
@@ -635,10 +635,10 @@
         <v>32.35852917728</v>
       </c>
       <c r="S3">
-        <v>0.1003175627737789</v>
+        <v>0.1192927267581789</v>
       </c>
       <c r="T3">
-        <v>0.1003175627737789</v>
+        <v>0.1192927267581789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.08042966666667</v>
+        <v>14.51771933333333</v>
       </c>
       <c r="N4">
-        <v>42.241289</v>
+        <v>43.553158</v>
       </c>
       <c r="O4">
-        <v>0.1286994854395722</v>
+        <v>0.1577961098402008</v>
       </c>
       <c r="P4">
-        <v>0.1286994854395722</v>
+        <v>0.1577961098402008</v>
       </c>
       <c r="Q4">
-        <v>3.281603712019556</v>
+        <v>3.383519024785778</v>
       </c>
       <c r="R4">
-        <v>29.534433408176</v>
+        <v>30.451671223072</v>
       </c>
       <c r="S4">
-        <v>0.09156233156273942</v>
+        <v>0.1122629175956008</v>
       </c>
       <c r="T4">
-        <v>0.09156233156273944</v>
+        <v>0.1122629175956008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.99572566666667</v>
+        <v>30.421077</v>
       </c>
       <c r="N5">
-        <v>80.987177</v>
+        <v>91.263231</v>
       </c>
       <c r="O5">
-        <v>0.2467492885243999</v>
+        <v>0.3306530108160611</v>
       </c>
       <c r="P5">
-        <v>0.2467492885243999</v>
+        <v>0.3306530108160611</v>
       </c>
       <c r="Q5">
-        <v>6.291659818174223</v>
+        <v>7.089976767056</v>
       </c>
       <c r="R5">
-        <v>56.62493836356801</v>
+        <v>63.80979090350401</v>
       </c>
       <c r="S5">
-        <v>0.1755480225237507</v>
+        <v>0.2352407276933002</v>
       </c>
       <c r="T5">
-        <v>0.1755480225237508</v>
+        <v>0.2352407276933002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.90252333333333</v>
+        <v>31.63742133333333</v>
       </c>
       <c r="N6">
-        <v>158.70757</v>
+        <v>94.91226399999999</v>
       </c>
       <c r="O6">
-        <v>0.4835454380751707</v>
+        <v>0.3438737102674882</v>
       </c>
       <c r="P6">
-        <v>0.4835454380751708</v>
+        <v>0.3438737102674882</v>
       </c>
       <c r="Q6">
-        <v>5.000787359827777</v>
+        <v>2.990632709604444</v>
       </c>
       <c r="R6">
-        <v>45.00708623845</v>
+        <v>26.91569438643999</v>
       </c>
       <c r="S6">
-        <v>0.1395304828057736</v>
+        <v>0.09922721018490169</v>
       </c>
       <c r="T6">
-        <v>0.1395304828057736</v>
+        <v>0.09922721018490169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>46.28042</v>
       </c>
       <c r="O7">
-        <v>0.1410057879608571</v>
+        <v>0.1676771690762499</v>
       </c>
       <c r="P7">
-        <v>0.1410057879608571</v>
+        <v>0.1676771690762499</v>
       </c>
       <c r="Q7">
         <v>1.458270322855555</v>
@@ -883,10 +883,10 @@
         <v>13.1244329057</v>
       </c>
       <c r="S7">
-        <v>0.04068822518707822</v>
+        <v>0.04838444231807101</v>
       </c>
       <c r="T7">
-        <v>0.04068822518707822</v>
+        <v>0.04838444231807101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.08042966666667</v>
+        <v>14.51771933333333</v>
       </c>
       <c r="N8">
-        <v>42.241289</v>
+        <v>43.553158</v>
       </c>
       <c r="O8">
-        <v>0.1286994854395722</v>
+        <v>0.1577961098402008</v>
       </c>
       <c r="P8">
-        <v>0.1286994854395722</v>
+        <v>0.1577961098402008</v>
       </c>
       <c r="Q8">
-        <v>1.330999549007222</v>
+        <v>1.372335812381111</v>
       </c>
       <c r="R8">
-        <v>11.978995941065</v>
+        <v>12.35102231143</v>
       </c>
       <c r="S8">
-        <v>0.03713715387683279</v>
+        <v>0.04553319224460005</v>
       </c>
       <c r="T8">
-        <v>0.0371371538768328</v>
+        <v>0.04553319224460005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.99572566666667</v>
+        <v>30.421077</v>
       </c>
       <c r="N9">
-        <v>80.987177</v>
+        <v>91.263231</v>
       </c>
       <c r="O9">
-        <v>0.2467492885243999</v>
+        <v>0.3306530108160611</v>
       </c>
       <c r="P9">
-        <v>0.2467492885243999</v>
+        <v>0.3306530108160611</v>
       </c>
       <c r="Q9">
-        <v>2.551860954393889</v>
+        <v>2.875653707015</v>
       </c>
       <c r="R9">
-        <v>22.966748589545</v>
+        <v>25.880883363135</v>
       </c>
       <c r="S9">
-        <v>0.07120126600064912</v>
+        <v>0.095412283122761</v>
       </c>
       <c r="T9">
-        <v>0.07120126600064913</v>
+        <v>0.095412283122761</v>
       </c>
     </row>
   </sheetData>
